--- a/medicine/Handicap/Blanca_(série_télévisée)/Blanca_(série_télévisée).xlsx
+++ b/medicine/Handicap/Blanca_(série_télévisée)/Blanca_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Blanca_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blanca est une série télévisée italienne créée par Francesco Arlanch et Mario Ruggeri, de 100 minutes librement basée sur les romans de Patrizia Rinaldi, et diffusée depuis le 22 décembre 2021 sur Rai 1[1],[2],[3].
-En version française, les épisodes sont divisés en deux parties d'environ 50 minutes. En France, elle est diffusée depuis le 7 janvier 2023 sur M6[4],[5], et au Québec depuis le 9 janvier 2023 sur AddikTV[6]. Elle reste inédite dans les autres pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blanca est une série télévisée italienne créée par Francesco Arlanch et Mario Ruggeri, de 100 minutes librement basée sur les romans de Patrizia Rinaldi, et diffusée depuis le 22 décembre 2021 sur Rai 1.
+En version française, les épisodes sont divisés en deux parties d'environ 50 minutes. En France, elle est diffusée depuis le 7 janvier 2023 sur M6 et au Québec depuis le 9 janvier 2023 sur AddikTV. Elle reste inédite dans les autres pays francophones.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Blanca_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'un incendie criminel, Blanca Ferrando est devenue aveugle à l'âge de 12 ans. Elle est engagée par la police de Gênes comme consultante spécialisée dans le décodage de fichiers audio. Elle est toujours accompagnée par son chien guide Linneo, une femelle bouledogue américaine, qui la protège et la réconforte dans les moments difficiles, et par sa meilleure amie, Stella. Après avoir surmonté les défis du travail, elle se retrouve à devoir affronter les défis sentimentaux : elle va se retrouver impliquée dans un triangle amoureux entre deux hommes, l'inspecteur Michele Liguori et le jeune cuisinier Nanni Busalla, tous deux au passé marqué par des drames familiaux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Blanca_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Chiara Giannetta (VF : Victoria Grosbois) : Blanca Ferrando
 Giuseppe Zeno (it) (VF : Jérémie Covillault) : Inspecteur Michele Liguori
@@ -554,7 +570,7 @@
 Sara Ciocca (VF : Manon Adolphe) : Lucia Ottonello
 Antonio Zavatteri (it) (VF : Bernard Bollet) : Alberto Repetto
 Chiara Baschetti : Veronica Alberici
- Source et légende : version française (VF) sur RS Doublage[7]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Blanca_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,13 +599,15 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Chiara Giannetta se voit proposer le rôle un mois avant le tournage après le refus de l'actrice Giulia Michelini[8] : « J’ai commencé par travailler mon rapport à la cécité. J’ai passé plusieurs jours à échanger à distance avec des personnes aveugles, parmi lesquelles deux champions olympiques. J’ai également rencontré le chanteur Andrea Bocelli »[9].
-La série, qui a bénéficié du conseil artistique d'Andrea Bocelli, est la première au monde à être entièrement tournée en holophonie, une technique d'enregistrement sonore qui permet de retranscrire tout ce que l’héroïne entend[10].
-Le tournage a lieu à partir de février 2021 en Ligurie, en particulier à Gênes, Boccadasse et Camogli[11],[12].
-Lors de sa diffusion en décembre 2021 sur Rai 1, elle rassemble 5,672 millions de téléspectateurs[13]. Renouvelée pour une deuxième saison le tournage débute le 21 novembre 2022[14].
-La série est renouvelée pour une troisième saison[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Chiara Giannetta se voit proposer le rôle un mois avant le tournage après le refus de l'actrice Giulia Michelini : « J’ai commencé par travailler mon rapport à la cécité. J’ai passé plusieurs jours à échanger à distance avec des personnes aveugles, parmi lesquelles deux champions olympiques. J’ai également rencontré le chanteur Andrea Bocelli ».
+La série, qui a bénéficié du conseil artistique d'Andrea Bocelli, est la première au monde à être entièrement tournée en holophonie, une technique d'enregistrement sonore qui permet de retranscrire tout ce que l’héroïne entend.
+Le tournage a lieu à partir de février 2021 en Ligurie, en particulier à Gênes, Boccadasse et Camogli,.
+Lors de sa diffusion en décembre 2021 sur Rai 1, elle rassemble 5,672 millions de téléspectateurs. Renouvelée pour une deuxième saison le tournage débute le 21 novembre 2022.
+La série est renouvelée pour une troisième saison.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Blanca_(série_télévisée)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,16 +638,55 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Première saison (2021)
-Elle a été diffusée en Italie du 22 novembre au 21 décembre 2021 sur Rai 1. En France, elle est diffusée du 7 janvier au 11 février 2023 sur M6.
+          <t>Première saison (2021)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elle a été diffusée en Italie du 22 novembre au 21 décembre 2021 sur Rai 1. En France, elle est diffusée du 7 janvier au 11 février 2023 sur M6.
 Sans les yeux (Senza occhi)
 Fantômes (Fantasmi)
 Alerte enlèvement (Io ballo da sola)
 En eaux profondes (Blu profondo)
 Traces (Macchie)
-Rentre à la maison (Tornando a casa)
-Deuxième saison (2023)
-Elle est diffusée en Italie du 5 octobre au 9 novembre 2023 sur Rai 1. En France, elle est diffusée du 10 février au 3 mars 2024 sur M6.
+Rentre à la maison (Tornando a casa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blanca_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2023)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elle est diffusée en Italie du 5 octobre au 9 novembre 2023 sur Rai 1. En France, elle est diffusée du 10 février au 3 mars 2024 sur M6.
 Blanca et Liguori enquêtent sur un poseur de bombes appelé Polybomber qui cible des policiers. Blanca dont la mère réapparaît devient famille d'accueil pour Lucia.
 Boom (Sotto attacco)
 Vies de chien (Il ladro di cani)
@@ -640,42 +697,43 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blanca_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences
-Italie
-Le pilote a été vu par 5,672 millions de téléspectateurs[13] en Italie.
-Saison 1
-Le plus haut chiffre d'audience
-Le plus bas chiffre d'audience
-Saison 2
-Le plus haut chiffre d'audience
-Le plus bas chiffre d'audience
-France
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pilote a été vu par 5,672 millions de téléspectateurs en Italie.
 Saison 1
 Le plus haut chiffre d'audience
 Le plus bas chiffre d'audience
@@ -686,36 +744,122 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blanca_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Saison 1
+Le plus haut chiffre d'audience
+Le plus bas chiffre d'audience
+Saison 2
+Le plus haut chiffre d'audience
+Le plus bas chiffre d'audience
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Blanca_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-Rubans d'argent 2022 : Meilleure actrice pour Maria Chiara Giannetta[38]
-Sélection
-Mostra de Venise 2022 : hors compétition[39]</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Rubans d'argent 2022 : Meilleure actrice pour Maria Chiara Giannetta</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blanca_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blanca_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mostra de Venise 2022 : hors compétition</t>
         </is>
       </c>
     </row>
